--- a/PanelPC_IP.xlsx
+++ b/PanelPC_IP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWork\SlaughterHousePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D8D89E-B3CA-48CB-A1DE-042ACD9712C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011903B8-B495-41A4-93F3-51CF70880E3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5683BBC6-A57D-4FFA-9665-EFA341D86085}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{5683BBC6-A57D-4FFA-9665-EFA341D86085}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>192.168.2.11</t>
   </si>
@@ -69,9 +69,6 @@
     <t>192.168.2.22</t>
   </si>
   <si>
-    <t>192.168.2.23</t>
-  </si>
-  <si>
     <t>192.168.2.24</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>รับซีก</t>
   </si>
   <si>
-    <t>unload</t>
-  </si>
-  <si>
     <t>รับเป็น</t>
   </si>
   <si>
@@ -112,6 +106,21 @@
   </si>
   <si>
     <t>ชิ้นส่วน2</t>
+  </si>
+  <si>
+    <t>จ่ายซีก LOADING</t>
+  </si>
+  <si>
+    <t>จ่ายชิ้นส่วน LOADING</t>
+  </si>
+  <si>
+    <t>จ่ายเครื่องใน</t>
+  </si>
+  <si>
+    <t>192.168.2.4</t>
+  </si>
+  <si>
+    <t>192.168.2.3</t>
   </si>
 </sst>
 </file>
@@ -471,20 +480,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA23061-A3E0-4D4E-80C4-DE65CD4D9A4A}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -519,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -530,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,31 +602,42 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PanelPC_IP.xlsx
+++ b/PanelPC_IP.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyWork\SlaughterHousePro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011903B8-B495-41A4-93F3-51CF70880E3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346424CF-3755-4972-9FC6-D876319878FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{5683BBC6-A57D-4FFA-9665-EFA341D86085}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5683BBC6-A57D-4FFA-9665-EFA341D86085}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>192.168.2.11</t>
   </si>
@@ -120,7 +121,10 @@
     <t>192.168.2.4</t>
   </si>
   <si>
-    <t>192.168.2.3</t>
+    <t>v.20.01.27.01</t>
+  </si>
+  <si>
+    <t>192.168.2.23</t>
   </si>
 </sst>
 </file>
@@ -480,24 +484,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA23061-A3E0-4D4E-80C4-DE65CD4D9A4A}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,12 +516,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -524,7 +532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -534,8 +542,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -546,15 +557,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -565,12 +579,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -580,8 +594,11 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -591,13 +608,16 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -607,21 +627,27 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -631,16 +657,36 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAEEF46-FDD3-499C-B848-D227E83DD30F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>